--- a/biology/Botanique/Liste_des_plantes_à_cosmétique_et_à_parfum/Liste_des_plantes_à_cosmétique_et_à_parfum.xlsx
+++ b/biology/Botanique/Liste_des_plantes_à_cosmétique_et_à_parfum/Liste_des_plantes_à_cosmétique_et_à_parfum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes ci-dessous sont utilisées dans la fabrication de cosmétiques et de parfums.
 Liste non exhaustive à améliorer et compléter (usages et noms latins)
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abricot (Prunus armeniaca) : l'amande douce du noyau ;
 Absinthe (Artemisia absinthium) ;
@@ -547,7 +561,7 @@
 Aigremoine (Agrimonia eupatoria) : la plante séchée ;
 Alchémille (Alchemilla vulgaris) : ses tanins et ses flavonoïdes ;
 Laitue de mer (Ulva lactuca)[réf. nécessaire] ;
-Aloe vera[1], aloès officinal (Asphodelaceae), suc de la feuille, cicatrisation.
+Aloe vera, aloès officinal (Asphodelaceae), suc de la feuille, cicatrisation.
 Amandier (Amygdalus communis) : l'huile extraite du noyau ;
 Anacardier du Brésil (Anacardium occidentale) : la noix, les feuilles, l'écorce ;
 Ananas (Ananas sativus) : la pulpe ;
@@ -571,7 +585,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,7 +603,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baccharis (Baccharis genistelloides), la baccharine
 Bambou (Bambusa arundinacea), l'exsudat récolté au niveau des nœuds des tiges
@@ -617,7 +633,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -635,7 +651,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cacaoyer (Theobroma cacao), la fève de cacao
 Cactus (Cereus grandiflorus), les tiges
@@ -682,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -700,7 +718,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Datte (Phœnix dactylifera)
 Durvillaea antarctica , algue brune, les lames</t>
@@ -713,7 +733,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -731,7 +751,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Échinacée, (Echinacea purpurea), la racine
 Églantier vrai, appelé aussi rose du chien, (Rosa canina), l'huile essentielle et les fruits
@@ -745,7 +767,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -763,7 +785,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Feijoa, (Acca sellowiana), les fruits
 Fenouil commun, (Foeniculum vulgare), les feuilles, les graines
@@ -782,7 +806,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -800,7 +824,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Petit galanga appelée aussi gingembre chinois, (Alpinia officinarum)
 Galbanum, (Ferula gummosa ; Ferula galbaniflua Boiss. &amp; Buhse)
@@ -830,7 +856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -848,7 +874,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hamamelis, (Hamamelis virginiana)
 Harpagophytum procumbens
@@ -866,7 +894,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -884,7 +912,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Immortelle, (Helichrysum stoechasla), fleur.
 Iris, (Iris florentina), la fleur.</t>
@@ -897,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +945,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jasmin d'Himalaya, (Nyctantes arbor-tristis)
 Jasmin officinal, aussi appelé jasmin commun (Jasminum officinale)
@@ -931,7 +963,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -949,7 +981,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kaki, aussi appelé plaqueminier, (Dyospiros kaki)
 Karite (Butyrospermum parkii)
@@ -965,7 +999,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -983,7 +1017,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Labdanum, voir Ciste
 Lamier blanc ou ortie blanche (Lamium album)
@@ -1009,7 +1045,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1027,7 +1063,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Maïs, (Zea mays), les graines
 Mandarine, (Citrus reticulata)
@@ -1060,7 +1098,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1078,7 +1116,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Les fleurs est narcisses et jonquilles, du genre Narcissus
 Nénuphar blanc, (Nymphea alba)
@@ -1097,7 +1137,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1115,7 +1155,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Olivier, (Olea europaea), l'huile
 Onagre bisannuelle
@@ -1133,7 +1175,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1151,7 +1193,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Palmarosa, (Cymbopogon martini)
 Palme, (Elaeis guineensis)
@@ -1189,7 +1233,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1208,6 +1252,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1215,7 +1261,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1233,7 +1279,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Raisin, (Vitis sp.), raisin muscat, raisin de Corinthe, l'huile
 Ratanhia, (Krameria triandra)
@@ -1253,7 +1301,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1271,7 +1319,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Safran, (Crocus sativus)
 Santal, (Santalum album), le bois
@@ -1293,7 +1343,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1311,7 +1361,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Takamaka ou Tamanu, (Calophyllum inophyllum)
 Tamarin, (Tamarindus indica)
@@ -1331,7 +1383,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1350,6 +1402,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1357,7 +1411,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1375,7 +1429,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Valériane, (Valeriana officinalis)
 Vanillier du Brésil, (Vanilla planifolia)
@@ -1391,7 +1447,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1410,6 +1466,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1417,7 +1475,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1436,6 +1494,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,7 +1503,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1461,7 +1521,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Ylang-ylang, (Cananga odorata)
 Yucca, (Yucca schidigera)</t>
@@ -1474,7 +1536,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_%C3%A0_cosm%C3%A9tique_et_%C3%A0_parfum</t>
+          <t>Liste_des_plantes_à_cosmétique_et_à_parfum</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1493,6 +1555,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
